--- a/biology/Botanique/Salix_glabra/Salix_glabra.xlsx
+++ b/biology/Botanique/Salix_glabra/Salix_glabra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Saule glabre[1] (Salix glabra) est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un saule natif du centre et du sud-est de l'Europe.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Saule glabre (Salix glabra) est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un saule natif du centre et du sud-est de l'Europe.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix glabra est un buisson atteignant jusqu'à 1,5 mètre de haut. Toutes les parties de la plante sont glabres et les branches sont d'un rouge brunâtre[2],[3],
-[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix glabra est un buisson atteignant jusqu'à 1,5 mètre de haut. Toutes les parties de la plante sont glabres et les branches sont d'un rouge brunâtre
+.
 La floraison a lieu de mai à juin.
-Chromosomie : 2n = 76 ou 114[5].
+Chromosomie : 2n = 76 ou 114.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante se trouve naturellement en Autriche, dans le Sud de l'Allemagne, dans l'Ouest de la Suisse, en Slovénie, en Croatie, en Bosnie et dans le Nord de l'Italie[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante se trouve naturellement en Autriche, dans le Sud de l'Allemagne, dans l'Ouest de la Suisse, en Slovénie, en Croatie, en Bosnie et dans le Nord de l'Italie.
 </t>
         </is>
       </c>
